--- a/diplom/models_results.xlsx
+++ b/diplom/models_results.xlsx
@@ -461,7 +461,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>27.68302389803969</v>
+        <v>27.68302389803968</v>
       </c>
     </row>
     <row r="4">
@@ -469,7 +469,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="n">
-        <v>30.10316976595256</v>
+        <v>30.10316976595255</v>
       </c>
     </row>
     <row r="5">
@@ -485,7 +485,7 @@
         <v>34</v>
       </c>
       <c r="B6" t="n">
-        <v>26.11643839103436</v>
+        <v>26.11643839103437</v>
       </c>
     </row>
     <row r="7">
@@ -493,7 +493,7 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>26.83379029041211</v>
+        <v>26.83379029041212</v>
       </c>
     </row>
     <row r="8">
@@ -549,7 +549,7 @@
         <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>23.95519603146495</v>
+        <v>23.95519603146496</v>
       </c>
     </row>
     <row r="15">
@@ -557,7 +557,7 @@
         <v>22</v>
       </c>
       <c r="B15" t="n">
-        <v>25.96486735019667</v>
+        <v>25.96486735019668</v>
       </c>
     </row>
     <row r="16">
@@ -573,7 +573,7 @@
         <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>23.96273310772148</v>
+        <v>23.96273310772149</v>
       </c>
     </row>
     <row r="18">
@@ -589,7 +589,7 @@
         <v>23</v>
       </c>
       <c r="B19" t="n">
-        <v>25.52023409488451</v>
+        <v>25.5202340948845</v>
       </c>
     </row>
   </sheetData>
